--- a/biology/Botanique/Gentiana/Gentiana.xlsx
+++ b/biology/Botanique/Gentiana/Gentiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana est un genre de plantes appelé communément gentianes, de la famille des Gentianacées. 
 Ce sont des plantes herbacées, annuelles ou vivaces, aux feuilles souvent en rosettes basales. Les fleurs solitaires ou en grappes ont en général un calice denté et une corolle en cloche, en entonnoir ou en trompette. Dans ce genre cosmopolite on a décrit environ 400 espèces qui poussent souvent dans les milieux montagnards.
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gentiana acaulis L. – Gentiane acaule ou gentiane de Koch
 Gentiana alpina Vill. – Gentiane des Alpes
@@ -552,7 +566,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gentiana affinis Griseb.
 Gentiana alba Muhl. ex Nutt.
